--- a/doc/examples/supplier/supplier-capacity.xlsx
+++ b/doc/examples/supplier/supplier-capacity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\cookbook\supplier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community-u20\doc\examples\supplier\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59992766-C8F7-4C91-8D6D-A73EAF1CCDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21330" windowHeight="8183" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$H</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">supplier!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -201,22 +215,22 @@
     <t>Time units to be used for the resource report: hours, days, weeks</t>
   </si>
   <si>
-    <t>plan.loglevel</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Controls the verbosity of the planning log file. Accepted values are 0(silent - default), 1 and 2 (verbose)</t>
-  </si>
-  <si>
     <t>Order #4</t>
+  </si>
+  <si>
+    <t>allowsplits</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Controls whether a sales order or forecast can be split across multiple manufacturing orders during planning. Default: false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
@@ -267,7 +281,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="headerstyle" xfId="1"/>
+    <cellStyle name="headerstyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -567,22 +581,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -634,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -660,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -686,9 +700,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -713,27 +727,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1048576"/>
+  <autoFilter ref="A1:H1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -755,7 +769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -766,74 +780,74 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576"/>
+  <autoFilter ref="A1:C1048575" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1048576"/>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -849,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -858,52 +872,52 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1048576"/>
+  <autoFilter ref="A1:B1048576" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1048576"/>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -932,52 +946,52 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1048576"/>
+  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1048576"/>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1036,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1066,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1097,25 +1111,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1048576"/>
+  <autoFilter ref="A1:I1048576" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1131,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1139,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1148,27 +1162,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1048576"/>
+  <autoFilter ref="A1:B1048576" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.265625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1212,7 +1226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1300,7 +1314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1344,7 +1358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1388,7 +1402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1432,7 +1446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1520,7 +1534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1564,7 +1578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1608,7 +1622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1740,7 +1754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1784,7 +1798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1828,7 +1842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1872,7 +1886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1916,7 +1930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1960,7 +1974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2004,7 +2018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2048,7 +2062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2136,7 +2150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2180,7 +2194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2224,7 +2238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2268,7 +2282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2312,7 +2326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2356,7 +2370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2400,7 +2414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2444,7 +2458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2488,7 +2502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2532,7 +2546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2576,7 +2590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -2620,7 +2634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -2664,7 +2678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2708,7 +2722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2753,7 +2767,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1048568"/>
+  <autoFilter ref="A1:N1048568" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>